--- a/biology/Botanique/Véronique_rampante/Véronique_rampante.xlsx
+++ b/biology/Botanique/Véronique_rampante/Véronique_rampante.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>V%C3%A9ronique_rampante</t>
+          <t>Véronique_rampante</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Veronica repens
 La véronique rampante (Veronica repens) est, comme la plupart des véroniques, une plante de petite taille. Elle ne dépasse guère une quinzaine de centimètres. Par contre, elle peut former d'importants tapis au sol. D'origine méditerranéenne, elle est assez rare à l'état sauvage et est surtout cultivée dans les jardins.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>V%C3%A9ronique_rampante</t>
+          <t>Véronique_rampante</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,14 +527,124 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Écologie et habitat
-Plante vivace d'origine méditerranéenne, peut-être de Corse si on en croit la langue anglaise qui l'appelle Corsican Speedwell. Elle est également connue en Espagne et en Italie. Elle apprécie les tourbières, en moyenne montagne et sur sol siliceux. Ailleurs, on la rencontre surtout dans les jardins, où on l'apprécie pour la constitution de rocailles. Floraison : de mai à septembre.
-Morphologie générale et végétative
-Plante herbacée rampante, basse.
-Morphologie florale
-L'inflorescence est un racème simple de fleurs hermaphrodites, généralement blanchâtres ou bleu pâle (certaines variétés cultivées présentent des teintes plus colorées). Fleurs à quatre pétales, à deux étamines et à un style. Ovaire supère à deux carpelles. Pollinisation par les insectes.
-Fruit et graines
-Le fruit est une capsule.
+          <t>Écologie et habitat</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante vivace d'origine méditerranéenne, peut-être de Corse si on en croit la langue anglaise qui l'appelle Corsican Speedwell. Elle est également connue en Espagne et en Italie. Elle apprécie les tourbières, en moyenne montagne et sur sol siliceux. Ailleurs, on la rencontre surtout dans les jardins, où on l'apprécie pour la constitution de rocailles. Floraison : de mai à septembre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Véronique_rampante</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/V%C3%A9ronique_rampante</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Morphologie générale et végétative</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante herbacée rampante, basse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Véronique_rampante</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/V%C3%A9ronique_rampante</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Morphologie florale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'inflorescence est un racème simple de fleurs hermaphrodites, généralement blanchâtres ou bleu pâle (certaines variétés cultivées présentent des teintes plus colorées). Fleurs à quatre pétales, à deux étamines et à un style. Ovaire supère à deux carpelles. Pollinisation par les insectes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Véronique_rampante</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/V%C3%A9ronique_rampante</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruit et graines</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit est une capsule.
 </t>
         </is>
       </c>
